--- a/Config/tables/Tower.xlsx
+++ b/Config/tables/Tower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14865" activeTab="1"/>
+    <workbookView windowWidth="21045" windowHeight="14190"/>
   </bookViews>
   <sheets>
     <sheet name="Tower" sheetId="1" r:id="rId1"/>
@@ -128,15 +128,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>SkillID</t>
+  </si>
+  <si>
+    <t>ResName</t>
   </si>
   <si>
     <t>int32</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>RepeatCheck:true MakeIndex:true</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>技能ID</t>
+  </si>
+  <si>
+    <t>资源名称</t>
   </si>
   <si>
     <t>TableName: "Tower" Package: "RLSGame"</t>
@@ -845,7 +878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,79 +886,46 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="37" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="35" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="36" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="46" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="28" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="37" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="37" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="35" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="36" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="46" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="28" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="37" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1246,15 +1246,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6" style="11" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="11" customWidth="1"/>
     <col min="2" max="2" width="22.875" style="12" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="11" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="12" customWidth="1"/>
@@ -1271,803 +1271,1212 @@
     <col min="16" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" ht="33" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="15.75" spans="1:20">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>11100001</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-    </row>
-    <row r="16" s="4" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-    </row>
-    <row r="25" s="7" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-    </row>
-    <row r="26" s="8" customFormat="1" ht="15.75" spans="3:20">
-      <c r="C26" s="2"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-    </row>
-    <row r="28" s="5" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-    </row>
-    <row r="29" s="5" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-    </row>
-    <row r="30" s="7" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-    </row>
-    <row r="31" s="8" customFormat="1" ht="15.75" spans="3:20">
-      <c r="C31" s="2"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-    </row>
-    <row r="32" s="9" customFormat="1" spans="1:20">
-      <c r="A32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-    </row>
-    <row r="34" s="7" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-    </row>
-    <row r="35" s="5" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-    </row>
-    <row r="37" s="7" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-    </row>
-    <row r="38" s="9" customFormat="1" spans="1:20">
-      <c r="A38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-    </row>
-    <row r="39" s="8" customFormat="1" ht="15.75" spans="3:20">
-      <c r="C39" s="2"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-    </row>
-    <row r="40" s="10" customFormat="1" ht="15.75" spans="3:20">
-      <c r="C40" s="9"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="25"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-    </row>
-    <row r="41" s="9" customFormat="1" spans="1:20">
-      <c r="A41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-    </row>
-    <row r="42" s="5" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-    </row>
-    <row r="43" s="10" customFormat="1" ht="15.75" spans="3:20">
-      <c r="C43" s="9"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="25"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-    </row>
-    <row r="44" s="9" customFormat="1" spans="1:20">
-      <c r="A44" s="22"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-    </row>
-    <row r="46" s="4" customFormat="1" ht="15.75" spans="4:20">
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-    </row>
-    <row r="47" s="4" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" s="9" customFormat="1" spans="1:7">
-      <c r="A48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" s="6" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" ht="15.75" spans="2:2">
-      <c r="B52" s="11"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15.75" spans="10:20">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+    </row>
+    <row r="24" s="6" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+    </row>
+    <row r="25" s="7" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+    </row>
+    <row r="26" s="8" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+    </row>
+    <row r="30" s="7" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+    </row>
+    <row r="31" s="8" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+    </row>
+    <row r="32" s="9" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+    </row>
+    <row r="34" s="7" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+    </row>
+    <row r="35" s="5" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+    </row>
+    <row r="37" s="7" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+    </row>
+    <row r="38" s="9" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+    </row>
+    <row r="39" s="8" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+    </row>
+    <row r="40" s="10" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+    </row>
+    <row r="41" s="9" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+    </row>
+    <row r="42" s="5" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+    </row>
+    <row r="43" s="10" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+    </row>
+    <row r="44" s="9" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+    </row>
+    <row r="46" s="4" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+    </row>
+    <row r="47" s="4" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+    </row>
+    <row r="51" s="6" customFormat="1" ht="15.75" spans="1:21">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+    </row>
+    <row r="53" ht="15.75" spans="1:21">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2082,15 +2491,15 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="4:5">
